--- a/Daily_tasks.xlsx
+++ b/Daily_tasks.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\bujji\github_daily_status\Daily-Status\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Documents\siri\Daily-Status\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54463DFF-6774-4672-BB0C-396D67BC14E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B17DE8-D1B9-43B1-B6A1-059E58C41225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
   <si>
     <t>Date</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t xml:space="preserve">and,or,isin,not isin </t>
+  </si>
+  <si>
+    <t>Sql querys practice</t>
   </si>
 </sst>
 </file>
@@ -394,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -514,6 +517,17 @@
         <v>5</v>
       </c>
     </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>45639</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Daily_tasks.xlsx
+++ b/Daily_tasks.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Documents\siri\Daily-Status\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\bujji\github_daily_status\Daily-Status\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B17DE8-D1B9-43B1-B6A1-059E58C41225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54463DFF-6774-4672-BB0C-396D67BC14E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
   <si>
     <t>Date</t>
   </si>
@@ -76,9 +76,6 @@
   </si>
   <si>
     <t xml:space="preserve">and,or,isin,not isin </t>
-  </si>
-  <si>
-    <t>Sql querys practice</t>
   </si>
 </sst>
 </file>
@@ -397,10 +394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -517,17 +514,6 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>45639</v>
-      </c>
-      <c r="B14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" t="s">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
